--- a/biology/Virologie/Luteovirus/Luteovirus.xlsx
+++ b/biology/Virologie/Luteovirus/Luteovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luteovirus est un genre de virus de la famille des Tombusviridae, qui comprend 13 espèces acceptées par l'ICTV. Ces virus, parmi lesquels figure le virus de la jaunisse nanisante de l'orge (BYDV) qui en est l'espèce-type,  infectent  diverses espèces d'angiospermes (phytovirus).
 La distribution géographique du genre Luteovirus est très étendue. Les vecteurs de transmission de l'infection primaire des plantes par ces virus sont des pucerons.
@@ -514,10 +526,12 @@
           <t>Morphologie et structure du génome</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Luteovirus est un virus du groupe IV selon la  classification Baltimore des virus. Chaque virion contient un simple brin d'ARN à polarité positive. Le génome est non-segmenté, linéaire et comprend de 5300 à 5900 nucléotides.
-Les virions sont non-enveloppés, à structure icosaédrique, d'un diamètre de 25 à 30 nm, et comprennent 32 capsomères dans chaque nucléocapside. La teneur en acides nucléiques est d'environ 28 %[1].
+Les virions sont non-enveloppés, à structure icosaédrique, d'un diamètre de 25 à 30 nm, et comprennent 32 capsomères dans chaque nucléocapside. La teneur en acides nucléiques est d'environ 28 %.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 janvier 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 janvier 2021) :
 Apple luteovirus 1 (ALV-1)
 Apple-associated luteovirus (AAV)
 Barley yellow dwarf virus MAV (ByDVM)
